--- a/My Creation/Creation 2/Content List.xlsx
+++ b/My Creation/Creation 2/Content List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\AngryCloudEver.github.io\My Creation\Creation 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C190F98E-3B36-413E-AEC6-6D7C93E0D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C2A5DF-830A-425E-9352-94374C45EF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{30798CBD-11F8-4690-990F-7863118A60A1}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -622,10 +622,10 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="3" t="s">

--- a/My Creation/Creation 2/Content List.xlsx
+++ b/My Creation/Creation 2/Content List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\AngryCloudEver.github.io\My Creation\Creation 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C2A5DF-830A-425E-9352-94374C45EF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6AE599-08B5-4C6E-900C-52E099625DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{30798CBD-11F8-4690-990F-7863118A60A1}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -604,10 +604,10 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">

--- a/My Creation/Creation 2/Content List.xlsx
+++ b/My Creation/Creation 2/Content List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGit\AngryCloudEver.github.io\My Creation\Creation 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6AE599-08B5-4C6E-900C-52E099625DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96099EBC-38DD-40F3-A6A8-80677509703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{30798CBD-11F8-4690-990F-7863118A60A1}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -628,7 +628,7 @@
       <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="5" t="s">
